--- a/data.xlsx
+++ b/data.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d667ea849952e213/Desktop/family-money-tracker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C143A43DFA387D6A206102FA70928F1DA12CDE68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E05210-F628-4073-A760-F91955051AEE}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +55,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,130 +394,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>DateTime</v>
-      </c>
-      <c r="B1" t="str">
-        <v>From</v>
-      </c>
-      <c r="C1" t="str">
-        <v>To</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Action</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Amount</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Note</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2025-12-29T08:52:05.681Z</v>
-      </c>
-      <c r="B2" t="str">
-        <v>WORLD</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Charles</v>
-      </c>
-      <c r="D2" t="str">
-        <v>EARN</v>
-      </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
-      <c r="F2" t="str">
-        <v>salary</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-12-29T08:52:25.660Z</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Charles</v>
-      </c>
-      <c r="C3" t="str">
-        <v>WORLD</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SPEND</v>
-      </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="F3" t="str">
-        <v>petrol</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-12-29T08:53:05.461Z</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Charles</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Punitha</v>
-      </c>
-      <c r="D4" t="str">
-        <v>TRANSFER</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4" t="str">
-        <v>household</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-12-29T08:53:36.456Z</v>
-      </c>
-      <c r="B5" t="str">
-        <v>loan</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Punitha</v>
-      </c>
-      <c r="D5" t="str">
-        <v>BORROW</v>
-      </c>
-      <c r="E5">
-        <v>10000</v>
-      </c>
-      <c r="F5" t="str">
-        <v>loan</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-    </row>
+    <row r="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="3" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="6" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="7" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="8" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="9" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d667ea849952e213/Desktop/family-money-tracker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C143A43DFA387D6A206102FA70928F1DA12CDE68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E05210-F628-4073-A760-F91955051AEE}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -394,25 +396,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>DateTime</v>
+      </c>
+      <c r="B1" t="str">
+        <v>From</v>
+      </c>
+      <c r="C1" t="str">
+        <v>To</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Action</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Amount</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Category</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Note</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2025-12-29T13:09:48.384Z</v>
+      </c>
+      <c r="B2" t="str">
+        <v>WORLD</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Punitha</v>
+      </c>
+      <c r="D2" t="str">
+        <v>EARN</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +448,78 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-12-29T13:55:16.397Z</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Punitha</v>
+      </c>
+      <c r="C3" t="str">
+        <v>WORLD</v>
+      </c>
+      <c r="D3" t="str">
+        <v>SPEND</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="str">
+        <v>food</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-12-29T13:55:33.780Z</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Punitha</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Charles</v>
+      </c>
+      <c r="D4" t="str">
+        <v>TRANSFER</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-12-29T13:55:57.056Z</v>
+      </c>
+      <c r="B5" t="str">
+        <v>WORLD</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Punitha</v>
+      </c>
+      <c r="D5" t="str">
+        <v>EARN</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,9 +517,32 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-12-29T16:07:16.803Z</v>
+      </c>
+      <c r="B6" t="str">
+        <v>WORLD</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Charles</v>
+      </c>
+      <c r="D6" t="str">
+        <v>EARN</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,122 +427,30 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-29T13:09:48.384Z</v>
+        <v>2025-12-29T16:33:28.393Z</v>
       </c>
       <c r="B2" t="str">
         <v>WORLD</v>
       </c>
       <c r="C2" t="str">
-        <v>Punitha</v>
+        <v>Charles</v>
       </c>
       <c r="D2" t="str">
         <v>EARN</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-12-29T13:55:16.397Z</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Punitha</v>
-      </c>
-      <c r="C3" t="str">
-        <v>WORLD</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SPEND</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="str">
-        <v>food</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-12-29T13:55:33.780Z</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Punitha</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Charles</v>
-      </c>
-      <c r="D4" t="str">
-        <v>TRANSFER</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-12-29T13:55:57.056Z</v>
-      </c>
-      <c r="B5" t="str">
-        <v>WORLD</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Punitha</v>
-      </c>
-      <c r="D5" t="str">
-        <v>EARN</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2025-12-29T16:07:16.803Z</v>
-      </c>
-      <c r="B6" t="str">
-        <v>WORLD</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Charles</v>
-      </c>
-      <c r="D6" t="str">
-        <v>EARN</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>